--- a/report/times.xlsx
+++ b/report/times.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uminho365-my.sharepoint.com/personal/a67649_uminho_pt/Documents/Partilha entre pcs/Mestrado/CPD/AP/TP2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OneDrive\Universidade do Minho\MEI\Computação Paralela e Distribuída\3 - Algoritmos Paralelos\Trab2\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView minimized="1" xWindow="1170" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
-  <si>
-    <t>blas2lu</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>time</t>
   </si>
@@ -38,85 +35,25 @@
     <t>error</t>
   </si>
   <si>
-    <t>1.6226e-13</t>
-  </si>
-  <si>
-    <t>4.0746e-13</t>
-  </si>
-  <si>
-    <t>6.9228e-13</t>
-  </si>
-  <si>
-    <t>1.1116e-12</t>
-  </si>
-  <si>
-    <t>2.743311</t>
-  </si>
-  <si>
-    <t>22.620203</t>
-  </si>
-  <si>
-    <t>78.246263</t>
-  </si>
-  <si>
-    <t>185.884669</t>
-  </si>
-  <si>
-    <t>2.736772</t>
-  </si>
-  <si>
-    <t>1.2455e-10</t>
-  </si>
-  <si>
-    <t>5.1957e-10</t>
-  </si>
-  <si>
-    <t>22.679022</t>
-  </si>
-  <si>
-    <t>78.090144</t>
-  </si>
-  <si>
-    <t>3.5682e-10</t>
-  </si>
-  <si>
-    <t>180.185855</t>
-  </si>
-  <si>
-    <t>1.5850e-08</t>
-  </si>
-  <si>
-    <t>blas2lupp</t>
-  </si>
-  <si>
-    <t>blas3lu</t>
-  </si>
-  <si>
     <t>blas3lupp</t>
   </si>
   <si>
-    <t>0.147273</t>
-  </si>
-  <si>
-    <t>2.2443e-07</t>
-  </si>
-  <si>
-    <t>0.673430</t>
-  </si>
-  <si>
-    <t>2.1395e-06</t>
-  </si>
-  <si>
-    <t>1.998677</t>
-  </si>
-  <si>
-    <t>1.0576e-06</t>
-  </si>
-  <si>
-    <t>4.308496</t>
-  </si>
-  <si>
-    <t>1.0231e-05</t>
+    <t>BLAS2LU</t>
+  </si>
+  <si>
+    <t>BLAS2LUPP</t>
+  </si>
+  <si>
+    <t>BLAS3LU</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Error</t>
   </si>
 </sst>
 </file>
@@ -152,8 +89,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,213 +380,242 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I16"/>
+  <dimension ref="B2:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="B2:I16"/>
+      <selection activeCell="B2" sqref="B2:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="3" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2.7367720000000002</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1.2455E-10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <v>2000</v>
+      </c>
+      <c r="C5" s="1">
+        <v>22.679022</v>
+      </c>
+      <c r="D5" s="2">
+        <v>5.1957E-10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <v>3000</v>
+      </c>
+      <c r="C6" s="1">
+        <v>78.090143999999995</v>
+      </c>
+      <c r="D6" s="2">
+        <v>3.5682000000000001E-10</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <v>4000</v>
+      </c>
+      <c r="C7" s="1">
+        <v>180.185855</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1.585E-8</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="F8" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="H9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4">
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
         <v>1000</v>
       </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4">
+      <c r="C10" s="1">
+        <v>2.7433109999999998</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1.6226000000000001E-13</v>
+      </c>
+      <c r="F10" s="1">
         <v>1000</v>
       </c>
-      <c r="H4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5">
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
         <v>2000</v>
       </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5">
+      <c r="C11" s="1">
+        <v>22.620203</v>
+      </c>
+      <c r="D11" s="2">
+        <v>4.0746000000000001E-13</v>
+      </c>
+      <c r="F11" s="1">
         <v>2000</v>
       </c>
-      <c r="H5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6">
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
         <v>3000</v>
       </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6">
+      <c r="C12" s="1">
+        <v>78.246262999999999</v>
+      </c>
+      <c r="D12" s="2">
+        <v>6.9227999999999995E-13</v>
+      </c>
+      <c r="F12" s="1">
         <v>3000</v>
       </c>
-      <c r="H6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7">
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="1">
         <v>4000</v>
       </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7">
+      <c r="C13" s="1">
+        <v>185.884669</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1.1116E-12</v>
+      </c>
+      <c r="F13" s="1">
         <v>4000</v>
       </c>
-      <c r="H7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12" t="s">
-        <v>2</v>
-      </c>
-      <c r="H12" t="s">
-        <v>1</v>
-      </c>
-      <c r="I12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13">
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="1">
         <v>1000</v>
       </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G13">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14">
+      <c r="C16" s="1">
+        <v>0.14727299999999999</v>
+      </c>
+      <c r="D16" s="2">
+        <v>2.2443000000000001E-7</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="1">
         <v>2000</v>
       </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15">
+      <c r="C17" s="1">
+        <v>0.67342999999999997</v>
+      </c>
+      <c r="D17" s="2">
+        <v>2.1395E-6</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="1">
         <v>3000</v>
       </c>
-      <c r="C15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" t="s">
-        <v>6</v>
-      </c>
-      <c r="G15">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16">
+      <c r="C18" s="1">
+        <v>1.998677</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1.0576E-6</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="1">
         <v>4000</v>
       </c>
-      <c r="C16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" t="s">
-        <v>7</v>
-      </c>
-      <c r="G16">
-        <v>4000</v>
+      <c r="C19" s="1">
+        <v>4.3084959999999999</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1.0231000000000001E-5</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B8:D8"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>